--- a/biology/Botanique/Phalaenopsis_japonica/Phalaenopsis_japonica.xlsx
+++ b/biology/Botanique/Phalaenopsis_japonica/Phalaenopsis_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phalaenopsis japonica est une espèce d'orchidée épiphyte originaire des forêts de Chine, du Japon et de Corée[1]. Elle pousse à des altitudes de 600–1400 mètres et peut également se développer sur les falaises (en lithophyte) le long des vallées[2]. La croissance est monopodiale, les feuilles mesurent 6 à 13 cm de long et 2 à 3 cm de large. Les inflorescences mesurent entre 17 et 19 cm de long et portent des fleurs blanc crème. Les sépales portent 1 à 3 bandes transversales brun terne. Le labelle est tacheté de violet. L'éperon en forme de corne varie de 1,2 à 1,4 cm de longueur[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phalaenopsis japonica est une espèce d'orchidée épiphyte originaire des forêts de Chine, du Japon et de Corée. Elle pousse à des altitudes de 600–1400 mètres et peut également se développer sur les falaises (en lithophyte) le long des vallées. La croissance est monopodiale, les feuilles mesurent 6 à 13 cm de long et 2 à 3 cm de large. Les inflorescences mesurent entre 17 et 19 cm de long et portent des fleurs blanc crème. Les sépales portent 1 à 3 bandes transversales brun terne. Le labelle est tacheté de violet. L'éperon en forme de corne varie de 1,2 à 1,4 cm de longueur.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'UICN n'a pas évalué l'état de conservation de cette espèce. Elle est cependant inscrite à l'annexe II du CITES[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UICN n'a pas évalué l'état de conservation de cette espèce. Elle est cependant inscrite à l'annexe II du CITES.
 </t>
         </is>
       </c>
